--- a/documents/Resoltz-API-Reference_0.1.xlsx
+++ b/documents/Resoltz-API-Reference_0.1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18722"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="116">
   <si>
     <t>Feature</t>
   </si>
@@ -155,13 +150,13 @@
     <t>api/v1/workout/create</t>
   </si>
   <si>
-    <t>workouts by course</t>
-  </si>
-  <si>
-    <t>api/v1/workout/course/{courseid}</t>
-  </si>
-  <si>
-    <t>course id</t>
+    <t>workouts by plan</t>
+  </si>
+  <si>
+    <t>api/v1/workout/plan</t>
+  </si>
+  <si>
+    <t>plan id, schedule</t>
   </si>
   <si>
     <t>array of workouts</t>
@@ -239,6 +234,15 @@
     <t>courseid</t>
   </si>
   <si>
+    <t>course by student</t>
+  </si>
+  <si>
+    <t>api/v1/course/student/{userId}</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
     <t>userdetails</t>
   </si>
   <si>
@@ -260,13 +264,13 @@
     <t>students under exercise</t>
   </si>
   <si>
-    <t>students by course</t>
-  </si>
-  <si>
-    <t>api/v1/userdetails/course/{courseid}</t>
-  </si>
-  <si>
-    <t>students under course</t>
+    <t>students by plan</t>
+  </si>
+  <si>
+    <t>api/v1/userdetails/plan/{planid}</t>
+  </si>
+  <si>
+    <t>students under plan</t>
   </si>
   <si>
     <t>students by username</t>
@@ -284,6 +288,21 @@
     <t>api/v1/userdetails/updateprofile</t>
   </si>
   <si>
+    <t xml:space="preserve">update password </t>
+  </si>
+  <si>
+    <t>api/v1/userdetails/updatepassword</t>
+  </si>
+  <si>
+    <t>user id,old password,new password</t>
+  </si>
+  <si>
+    <t>successfully updated or wrong password</t>
+  </si>
+  <si>
+    <t>implemented</t>
+  </si>
+  <si>
     <t>validate emial</t>
   </si>
   <si>
@@ -326,9 +345,6 @@
     <t>api/v1/forgetpassword/reset/{token}</t>
   </si>
   <si>
-    <t xml:space="preserve">update password </t>
-  </si>
-  <si>
     <t>api/v1/updatepassword</t>
   </si>
   <si>
@@ -342,13 +358,22 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>profiledetails</t>
+  </si>
+  <si>
+    <t>api/v1/userdetails/profiledetails/{userid}</t>
+  </si>
+  <si>
+    <t>data of user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,10 +418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -515,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -709,21 +728,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
@@ -734,7 +753,7 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -788,7 +807,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -811,7 +830,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -834,7 +853,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -855,28 +874,28 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -887,7 +906,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -912,7 +931,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -923,7 +942,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -948,7 +967,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -959,7 +978,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -984,30 +1003,30 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1">
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -1030,7 +1049,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>50</v>
@@ -1051,7 +1070,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>53</v>
@@ -1074,7 +1093,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1085,7 +1104,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -1110,7 +1129,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>59</v>
@@ -1131,7 +1150,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>28</v>
@@ -1154,7 +1173,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>65</v>
@@ -1175,7 +1194,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>68</v>
@@ -1198,42 +1217,44 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>75</v>
       </c>
@@ -1242,7 +1263,7 @@
         <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
@@ -1253,45 +1274,49 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" t="s">
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>84</v>
       </c>
@@ -1299,132 +1324,186 @@
         <v>85</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>35</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>20</v>
       </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="G30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="G33" t="s">
         <v>97</v>
       </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
         <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
         <v>20</v>
       </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
         <v>15</v>
       </c>
     </row>
